--- a/artfynd/A 36223-2020.xlsx
+++ b/artfynd/A 36223-2020.xlsx
@@ -2950,10 +2950,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>102675615</v>
+        <v>102674094</v>
       </c>
       <c r="B21" t="n">
-        <v>78569</v>
+        <v>96367</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2962,39 +2962,40 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555929.9774697111</v>
+        <v>555941.4986950879</v>
       </c>
       <c r="R21" t="n">
-        <v>6991714.6166458</v>
+        <v>6992417.501499421</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3063,10 +3064,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>102674094</v>
+        <v>102673071</v>
       </c>
       <c r="B22" t="n">
-        <v>96367</v>
+        <v>78569</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3075,40 +3076,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555941.4986950879</v>
+        <v>556019.9946680904</v>
       </c>
       <c r="R22" t="n">
-        <v>6992417.501499421</v>
+        <v>6992527.713957582</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102673071</v>
+        <v>102673700</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>96367</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3189,39 +3189,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>556019.9946680904</v>
+        <v>556061.0870230824</v>
       </c>
       <c r="R23" t="n">
-        <v>6992527.713957582</v>
+        <v>6992436.345785588</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3290,7 +3291,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102675423</v>
+        <v>102673082</v>
       </c>
       <c r="B24" t="n">
         <v>78569</v>
@@ -3331,10 +3332,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>556067.4791666414</v>
+        <v>556017.6383200918</v>
       </c>
       <c r="R24" t="n">
-        <v>6991934.29552756</v>
+        <v>6992532.662645389</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3377,6 +3378,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3403,10 +3409,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102673700</v>
+        <v>102672183</v>
       </c>
       <c r="B25" t="n">
-        <v>96367</v>
+        <v>98520</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3419,21 +3425,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219874</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3441,14 +3447,14 @@
       <c r="L25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>556061.0870230824</v>
+        <v>555814.0315769641</v>
       </c>
       <c r="R25" t="n">
-        <v>6992436.345785588</v>
+        <v>6992381.289649313</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3517,10 +3523,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102673082</v>
+        <v>102673181</v>
       </c>
       <c r="B26" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3533,21 +3539,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3558,10 +3564,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>556017.6383200918</v>
+        <v>556016.7458243549</v>
       </c>
       <c r="R26" t="n">
-        <v>6992532.662645389</v>
+        <v>6992531.740106534</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3604,11 +3610,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På björk</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3635,10 +3636,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102672183</v>
+        <v>102675152</v>
       </c>
       <c r="B27" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3647,40 +3648,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>555814.0315769641</v>
+        <v>556063.6994521433</v>
       </c>
       <c r="R27" t="n">
-        <v>6992381.289649313</v>
+        <v>6992153.339685111</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3749,10 +3749,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102673181</v>
+        <v>102673637</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3761,39 +3761,40 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>556016.7458243549</v>
+        <v>556091.4243018022</v>
       </c>
       <c r="R28" t="n">
-        <v>6992531.740106534</v>
+        <v>6992415.550741013</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102675152</v>
+        <v>102672311</v>
       </c>
       <c r="B29" t="n">
         <v>78569</v>
@@ -3899,14 +3900,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>556063.6994521433</v>
+        <v>555848.2849864289</v>
       </c>
       <c r="R29" t="n">
-        <v>6992153.339685111</v>
+        <v>6992502.532189798</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3975,10 +3976,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102673637</v>
+        <v>102672555</v>
       </c>
       <c r="B30" t="n">
-        <v>96334</v>
+        <v>94121</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3987,25 +3988,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4017,10 +4018,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>556091.4243018022</v>
+        <v>555956.3304199459</v>
       </c>
       <c r="R30" t="n">
-        <v>6992415.550741013</v>
+        <v>6992505.75220197</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4089,7 +4090,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>102672311</v>
+        <v>102672740</v>
       </c>
       <c r="B31" t="n">
         <v>78569</v>
@@ -4130,10 +4131,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>555848.2849864289</v>
+        <v>556018.6704496816</v>
       </c>
       <c r="R31" t="n">
-        <v>6992502.532189798</v>
+        <v>6992472.808081832</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4202,10 +4203,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102672555</v>
+        <v>102674082</v>
       </c>
       <c r="B32" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4218,36 +4219,35 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555956.3304199459</v>
+        <v>555955.278470983</v>
       </c>
       <c r="R32" t="n">
-        <v>6992505.75220197</v>
+        <v>6992434.975187292</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102672740</v>
+        <v>102674585</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4328,39 +4328,40 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>556018.6704496816</v>
+        <v>555875.3611472296</v>
       </c>
       <c r="R33" t="n">
-        <v>6992472.808081832</v>
+        <v>6992327.912098738</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4429,10 +4430,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>102674082</v>
+        <v>102674074</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4445,21 +4446,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102675553</v>
+        <v>102674656</v>
       </c>
       <c r="B35" t="n">
         <v>78569</v>
@@ -4579,14 +4580,14 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>556003.0717956818</v>
+        <v>555899.9977846958</v>
       </c>
       <c r="R35" t="n">
-        <v>6991796.630980482</v>
+        <v>6992295.222790763</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4655,10 +4656,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102675680</v>
+        <v>102676160</v>
       </c>
       <c r="B36" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4667,40 +4668,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>555919.8606050932</v>
+        <v>556099.6845462379</v>
       </c>
       <c r="R36" t="n">
-        <v>6991721.701528697</v>
+        <v>6992147.610039625</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102674585</v>
+        <v>102672468</v>
       </c>
       <c r="B37" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,40 +4781,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>555875.3611472296</v>
+        <v>555925.5459816307</v>
       </c>
       <c r="R37" t="n">
-        <v>6992327.912098738</v>
+        <v>6992473.471497527</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4883,10 +4882,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102674074</v>
+        <v>102673871</v>
       </c>
       <c r="B38" t="n">
-        <v>89673</v>
+        <v>98520</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4895,39 +4894,40 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>555955.278470983</v>
+        <v>555992.1293255581</v>
       </c>
       <c r="R38" t="n">
-        <v>6992434.975187292</v>
+        <v>6992431.527829275</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>102674656</v>
+        <v>102673674</v>
       </c>
       <c r="B39" t="n">
         <v>78569</v>
@@ -5033,14 +5033,14 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>555899.9977846958</v>
+        <v>556068.3990979606</v>
       </c>
       <c r="R39" t="n">
-        <v>6992295.222790763</v>
+        <v>6992407.442215757</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102676160</v>
+        <v>102674987</v>
       </c>
       <c r="B40" t="n">
-        <v>78569</v>
+        <v>96356</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5121,39 +5121,40 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>219847</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>556099.6845462379</v>
+        <v>555971.3031562314</v>
       </c>
       <c r="R40" t="n">
-        <v>6992147.610039625</v>
+        <v>6992190.304715534</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5222,10 +5223,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102672468</v>
+        <v>102674439</v>
       </c>
       <c r="B41" t="n">
-        <v>89392</v>
+        <v>78603</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5234,25 +5235,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5263,10 +5264,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>555925.5459816307</v>
+        <v>555872.762341159</v>
       </c>
       <c r="R41" t="n">
-        <v>6992473.471497527</v>
+        <v>6992452.605577582</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5335,10 +5336,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102673871</v>
+        <v>102672223</v>
       </c>
       <c r="B42" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5347,40 +5348,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>555992.1293255581</v>
+        <v>555779.7725518027</v>
       </c>
       <c r="R42" t="n">
-        <v>6992431.527829275</v>
+        <v>6992392.494676519</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102673674</v>
+        <v>102673774</v>
       </c>
       <c r="B43" t="n">
         <v>78569</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>556068.3990979606</v>
+        <v>556051.8724107973</v>
       </c>
       <c r="R43" t="n">
-        <v>6992407.442215757</v>
+        <v>6992443.897770432</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102674987</v>
+        <v>102674097</v>
       </c>
       <c r="B44" t="n">
-        <v>96356</v>
+        <v>78569</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5574,40 +5574,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>555971.3031562314</v>
+        <v>555941.4986950879</v>
       </c>
       <c r="R44" t="n">
-        <v>6992190.304715534</v>
+        <v>6992417.501499421</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5676,10 +5675,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102674439</v>
+        <v>102674248</v>
       </c>
       <c r="B45" t="n">
-        <v>78603</v>
+        <v>78569</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5688,25 +5687,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5717,10 +5716,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>555872.762341159</v>
+        <v>555923.5189205953</v>
       </c>
       <c r="R45" t="n">
-        <v>6992452.605577582</v>
+        <v>6992485.683294397</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5789,10 +5788,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>102672223</v>
+        <v>102674268</v>
       </c>
       <c r="B46" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5801,39 +5800,40 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>555779.7725518027</v>
+        <v>555923.714069423</v>
       </c>
       <c r="R46" t="n">
-        <v>6992392.494676519</v>
+        <v>6992474.347125201</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>102673774</v>
+        <v>102674182</v>
       </c>
       <c r="B47" t="n">
         <v>78569</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>556051.8724107973</v>
+        <v>555930.8843123984</v>
       </c>
       <c r="R47" t="n">
-        <v>6992443.897770432</v>
+        <v>6992453.605729951</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6015,10 +6015,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102674097</v>
+        <v>102673906</v>
       </c>
       <c r="B48" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6027,39 +6027,40 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>555941.4986950879</v>
+        <v>555982.3661529566</v>
       </c>
       <c r="R48" t="n">
-        <v>6992417.501499421</v>
+        <v>6992418.205485758</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6128,7 +6129,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>102675441</v>
+        <v>102672265</v>
       </c>
       <c r="B49" t="n">
         <v>78569</v>
@@ -6169,10 +6170,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>556064.7461533612</v>
+        <v>555799.0981077637</v>
       </c>
       <c r="R49" t="n">
-        <v>6991908.389769911</v>
+        <v>6992430.928106785</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6241,10 +6242,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>102674248</v>
+        <v>102673715</v>
       </c>
       <c r="B50" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6257,21 +6258,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6282,10 +6283,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>555923.5189205953</v>
+        <v>556063.1302804593</v>
       </c>
       <c r="R50" t="n">
-        <v>6992485.683294397</v>
+        <v>6992423.226968406</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6354,10 +6355,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>102674268</v>
+        <v>102672250</v>
       </c>
       <c r="B51" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6366,40 +6367,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>555923.714069423</v>
+        <v>555783.462223583</v>
       </c>
       <c r="R51" t="n">
-        <v>6992474.347125201</v>
+        <v>6992415.691167935</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>102674182</v>
+        <v>102673996</v>
       </c>
       <c r="B52" t="n">
         <v>78569</v>
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>555930.8843123984</v>
+        <v>555956.3975149317</v>
       </c>
       <c r="R52" t="n">
-        <v>6992453.605729951</v>
+        <v>6992422.747574219</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>102673906</v>
+        <v>102673291</v>
       </c>
       <c r="B53" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6593,25 +6593,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>555982.3661529566</v>
+        <v>555992.625563895</v>
       </c>
       <c r="R53" t="n">
-        <v>6992418.205485758</v>
+        <v>6992534.499292246</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>102672265</v>
+        <v>102674434</v>
       </c>
       <c r="B54" t="n">
         <v>78569</v>
@@ -6736,10 +6736,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>555799.0981077637</v>
+        <v>555872.762341159</v>
       </c>
       <c r="R54" t="n">
-        <v>6992430.928106785</v>
+        <v>6992452.605577582</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>102673715</v>
+        <v>102672026</v>
       </c>
       <c r="B55" t="n">
-        <v>89673</v>
+        <v>98520</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6820,39 +6820,40 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>556063.1302804593</v>
+        <v>555840.8712505187</v>
       </c>
       <c r="R55" t="n">
-        <v>6992423.226968406</v>
+        <v>6992299.649259766</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6921,7 +6922,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102672250</v>
+        <v>102673379</v>
       </c>
       <c r="B56" t="n">
         <v>78569</v>
@@ -6962,10 +6963,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>555783.462223583</v>
+        <v>556055.3879449801</v>
       </c>
       <c r="R56" t="n">
-        <v>6992415.691167935</v>
+        <v>6992477.070103021</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7034,7 +7035,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>102673996</v>
+        <v>102672504</v>
       </c>
       <c r="B57" t="n">
         <v>78569</v>
@@ -7075,10 +7076,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>555956.3975149317</v>
+        <v>555929.6873047542</v>
       </c>
       <c r="R57" t="n">
-        <v>6992422.747574219</v>
+        <v>6992470.367718018</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7147,10 +7148,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>102673291</v>
+        <v>102674118</v>
       </c>
       <c r="B58" t="n">
-        <v>96334</v>
+        <v>89673</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7159,40 +7160,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>555992.625563895</v>
+        <v>555931.1263282663</v>
       </c>
       <c r="R58" t="n">
-        <v>6992534.499292246</v>
+        <v>6992439.548735716</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>102674434</v>
+        <v>102674263</v>
       </c>
       <c r="B59" t="n">
-        <v>78569</v>
+        <v>96367</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7273,39 +7273,40 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>555872.762341159</v>
+        <v>555923.714069423</v>
       </c>
       <c r="R59" t="n">
-        <v>6992452.605577582</v>
+        <v>6992474.347125201</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7374,10 +7375,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>102672026</v>
+        <v>102675198</v>
       </c>
       <c r="B60" t="n">
-        <v>98520</v>
+        <v>89952</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7386,40 +7387,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>760</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>555840.8712505187</v>
+        <v>556049.6060881343</v>
       </c>
       <c r="R60" t="n">
-        <v>6992299.649259766</v>
+        <v>6992154.003780152</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>102673379</v>
+        <v>102674394</v>
       </c>
       <c r="B61" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7500,39 +7500,40 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>556055.3879449801</v>
+        <v>555878.2173725277</v>
       </c>
       <c r="R61" t="n">
-        <v>6992477.070103021</v>
+        <v>6992425.937795421</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7601,10 +7602,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102672504</v>
+        <v>102676096</v>
       </c>
       <c r="B62" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7613,39 +7614,40 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>555929.6873047542</v>
+        <v>556077.8631277385</v>
       </c>
       <c r="R62" t="n">
-        <v>6992470.367718018</v>
+        <v>6992122.283678446</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7714,10 +7716,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>102674118</v>
+        <v>102672361</v>
       </c>
       <c r="B63" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7730,21 +7732,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7755,10 +7757,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>555931.1263282663</v>
+        <v>555856.6802972055</v>
       </c>
       <c r="R63" t="n">
-        <v>6992439.548735716</v>
+        <v>6992542.591117078</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7827,10 +7829,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102674263</v>
+        <v>102676105</v>
       </c>
       <c r="B64" t="n">
-        <v>96367</v>
+        <v>89392</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7839,40 +7841,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219874</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>555923.714069423</v>
+        <v>556092.0975637719</v>
       </c>
       <c r="R64" t="n">
-        <v>6992474.347125201</v>
+        <v>6992113.456744469</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7941,10 +7942,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>102675198</v>
+        <v>102674482</v>
       </c>
       <c r="B65" t="n">
-        <v>89952</v>
+        <v>96354</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7953,39 +7954,40 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>760</v>
+        <v>221952</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>556049.6060881343</v>
+        <v>555864.6710797823</v>
       </c>
       <c r="R65" t="n">
-        <v>6992154.003780152</v>
+        <v>6992394.860666494</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8054,10 +8056,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>102674394</v>
+        <v>102675184</v>
       </c>
       <c r="B66" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8066,40 +8068,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>555878.2173725277</v>
+        <v>556049.6060881343</v>
       </c>
       <c r="R66" t="n">
-        <v>6992425.937795421</v>
+        <v>6992154.003780152</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8168,7 +8169,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>102676096</v>
+        <v>102674933</v>
       </c>
       <c r="B67" t="n">
         <v>96334</v>
@@ -8206,14 +8207,14 @@
       <c r="L67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>556077.8631277385</v>
+        <v>555921.6577390116</v>
       </c>
       <c r="R67" t="n">
-        <v>6992122.283678446</v>
+        <v>6992224.37850414</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8282,10 +8283,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>102672361</v>
+        <v>102674019</v>
       </c>
       <c r="B68" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8294,39 +8295,40 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>555856.6802972055</v>
+        <v>555962.6931939744</v>
       </c>
       <c r="R68" t="n">
-        <v>6992542.591117078</v>
+        <v>6992452.792776703</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8395,10 +8397,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>102676105</v>
+        <v>102672497</v>
       </c>
       <c r="B69" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8407,25 +8409,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8436,10 +8438,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>556092.0975637719</v>
+        <v>555942.5341643642</v>
       </c>
       <c r="R69" t="n">
-        <v>6992113.456744469</v>
+        <v>6992462.878008902</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8508,10 +8510,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>102674482</v>
+        <v>102673662</v>
       </c>
       <c r="B70" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8520,40 +8522,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>555864.6710797823</v>
+        <v>556065.2048558879</v>
       </c>
       <c r="R70" t="n">
-        <v>6992394.860666494</v>
+        <v>6992408.294272491</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8622,7 +8623,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>102675184</v>
+        <v>102675250</v>
       </c>
       <c r="B71" t="n">
         <v>78569</v>
@@ -8659,14 +8660,14 @@
       <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>556049.6060881343</v>
+        <v>556056.3703077651</v>
       </c>
       <c r="R71" t="n">
-        <v>6992154.003780152</v>
+        <v>6992104.221104029</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8735,10 +8736,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>102674933</v>
+        <v>102672110</v>
       </c>
       <c r="B72" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8747,25 +8748,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8777,10 +8778,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>555921.6577390116</v>
+        <v>555828.4490519323</v>
       </c>
       <c r="R72" t="n">
-        <v>6992224.37850414</v>
+        <v>6992335.270428007</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8849,10 +8850,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>102674019</v>
+        <v>102674205</v>
       </c>
       <c r="B73" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8861,40 +8862,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>555962.6931939744</v>
+        <v>555926.006549913</v>
       </c>
       <c r="R73" t="n">
-        <v>6992452.792776703</v>
+        <v>6992446.717974547</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8963,10 +8963,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>102672497</v>
+        <v>102675970</v>
       </c>
       <c r="B74" t="n">
-        <v>89832</v>
+        <v>78569</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8975,25 +8975,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9004,10 +9004,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>555942.5341643642</v>
+        <v>556079.4601892662</v>
       </c>
       <c r="R74" t="n">
-        <v>6992462.878008902</v>
+        <v>6992082.391404534</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9076,10 +9076,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>102673662</v>
+        <v>102672632</v>
       </c>
       <c r="B75" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9088,39 +9088,40 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>556065.2048558879</v>
+        <v>555996.6474305253</v>
       </c>
       <c r="R75" t="n">
-        <v>6992408.294272491</v>
+        <v>6992459.274471547</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9189,10 +9190,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>102675250</v>
+        <v>102672143</v>
       </c>
       <c r="B76" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9201,39 +9202,40 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>556056.3703077651</v>
+        <v>555830.3220869353</v>
       </c>
       <c r="R76" t="n">
-        <v>6992104.221104029</v>
+        <v>6992358.436173045</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9302,10 +9304,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>102672110</v>
+        <v>102672276</v>
       </c>
       <c r="B77" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9314,40 +9316,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>555828.4490519323</v>
+        <v>555803.1692579368</v>
       </c>
       <c r="R77" t="n">
-        <v>6992335.270428007</v>
+        <v>6992431.905210124</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9416,7 +9417,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>102674205</v>
+        <v>102672430</v>
       </c>
       <c r="B78" t="n">
         <v>78569</v>
@@ -9457,10 +9458,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>555926.006549913</v>
+        <v>555918.352398372</v>
       </c>
       <c r="R78" t="n">
-        <v>6992446.717974547</v>
+        <v>6992495.573110513</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9529,7 +9530,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>102675970</v>
+        <v>102674012</v>
       </c>
       <c r="B79" t="n">
         <v>78569</v>
@@ -9570,10 +9571,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>556079.4601892662</v>
+        <v>555962.6931939744</v>
       </c>
       <c r="R79" t="n">
-        <v>6992082.391404534</v>
+        <v>6992452.792776703</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9642,10 +9643,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>102672632</v>
+        <v>102673745</v>
       </c>
       <c r="B80" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9654,40 +9655,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>555996.6474305253</v>
+        <v>556062.4099226893</v>
       </c>
       <c r="R80" t="n">
-        <v>6992459.274471547</v>
+        <v>6992412.328363672</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>102672143</v>
+        <v>102673861</v>
       </c>
       <c r="B81" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9768,40 +9768,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>555830.3220869353</v>
+        <v>555992.1293255581</v>
       </c>
       <c r="R81" t="n">
-        <v>6992358.436173045</v>
+        <v>6992431.527829275</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9870,7 +9869,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>102672276</v>
+        <v>102673955</v>
       </c>
       <c r="B82" t="n">
         <v>78569</v>
@@ -9911,10 +9910,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>555803.1692579368</v>
+        <v>555957.2510049673</v>
       </c>
       <c r="R82" t="n">
-        <v>6992431.905210124</v>
+        <v>6992425.937398707</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9983,7 +9982,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>102672430</v>
+        <v>102672317</v>
       </c>
       <c r="B83" t="n">
         <v>78569</v>
@@ -10024,10 +10023,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>555918.352398372</v>
+        <v>555854.2268902076</v>
       </c>
       <c r="R83" t="n">
-        <v>6992495.573110513</v>
+        <v>6992500.366457579</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10096,10 +10095,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>102674012</v>
+        <v>102672682</v>
       </c>
       <c r="B84" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10108,39 +10107,40 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>555962.6931939744</v>
+        <v>555999.7243547405</v>
       </c>
       <c r="R84" t="n">
-        <v>6992452.792776703</v>
+        <v>6992465.224102435</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>102673745</v>
+        <v>102672106</v>
       </c>
       <c r="B85" t="n">
-        <v>78569</v>
+        <v>101680</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10221,39 +10221,40 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>222412</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>556062.4099226893</v>
+        <v>555828.4490519323</v>
       </c>
       <c r="R85" t="n">
-        <v>6992412.328363672</v>
+        <v>6992335.270428007</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10322,7 +10323,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>102673861</v>
+        <v>102674062</v>
       </c>
       <c r="B86" t="n">
         <v>78569</v>
@@ -10363,10 +10364,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>555992.1293255581</v>
+        <v>555950.2132989967</v>
       </c>
       <c r="R86" t="n">
-        <v>6992431.527829275</v>
+        <v>6992438.970233505</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10409,6 +10410,11 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10435,10 +10441,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>102673955</v>
+        <v>102675925</v>
       </c>
       <c r="B87" t="n">
-        <v>78569</v>
+        <v>96356</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10447,39 +10453,40 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>219847</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>555957.2510049673</v>
+        <v>556069.2580294796</v>
       </c>
       <c r="R87" t="n">
-        <v>6992425.937398707</v>
+        <v>6992094.463514737</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10548,10 +10555,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>102672317</v>
+        <v>102672471</v>
       </c>
       <c r="B88" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10564,21 +10571,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10589,10 +10596,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>555854.2268902076</v>
+        <v>555925.5459816307</v>
       </c>
       <c r="R88" t="n">
-        <v>6992500.366457579</v>
+        <v>6992473.471497527</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10661,7 +10668,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>102672682</v>
+        <v>102673999</v>
       </c>
       <c r="B89" t="n">
         <v>98520</v>
@@ -10703,10 +10710,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>555999.7243547405</v>
+        <v>555956.3975149317</v>
       </c>
       <c r="R89" t="n">
-        <v>6992465.224102435</v>
+        <v>6992422.747574219</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10775,10 +10782,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102672106</v>
+        <v>102672874</v>
       </c>
       <c r="B90" t="n">
-        <v>101680</v>
+        <v>78569</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10787,40 +10794,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222412</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>555828.4490519323</v>
+        <v>556033.2951521287</v>
       </c>
       <c r="R90" t="n">
-        <v>6992335.270428007</v>
+        <v>6992493.925039705</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10889,10 +10895,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>102674062</v>
+        <v>102676162</v>
       </c>
       <c r="B91" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10901,39 +10907,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>555950.2132989967</v>
+        <v>556099.6845462379</v>
       </c>
       <c r="R91" t="n">
-        <v>6992438.970233505</v>
+        <v>6992147.610039625</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10976,11 +10982,6 @@
       <c r="AB91" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11007,10 +11008,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>102675925</v>
+        <v>102675964</v>
       </c>
       <c r="B92" t="n">
-        <v>96356</v>
+        <v>96239</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11023,21 +11024,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>219847</v>
+        <v>504</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11049,10 +11050,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>556069.2580294796</v>
+        <v>556065.3430367564</v>
       </c>
       <c r="R92" t="n">
-        <v>6992094.463514737</v>
+        <v>6992084.415958477</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11121,7 +11122,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>102675456</v>
+        <v>102675615</v>
       </c>
       <c r="B93" t="n">
         <v>78569</v>
@@ -11162,10 +11163,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>556063.8140728066</v>
+        <v>555929.9774697111</v>
       </c>
       <c r="R93" t="n">
-        <v>6991883.422212936</v>
+        <v>6991714.6166458</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11234,7 +11235,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>102675779</v>
+        <v>102675423</v>
       </c>
       <c r="B94" t="n">
         <v>78569</v>
@@ -11275,10 +11276,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>556028.4499553731</v>
+        <v>556067.4791666414</v>
       </c>
       <c r="R94" t="n">
-        <v>6991773.930866529</v>
+        <v>6991934.29552756</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11347,10 +11348,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102672471</v>
+        <v>102675553</v>
       </c>
       <c r="B95" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11363,21 +11364,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11388,10 +11389,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>555925.5459816307</v>
+        <v>556003.0717956818</v>
       </c>
       <c r="R95" t="n">
-        <v>6992473.471497527</v>
+        <v>6991796.630980482</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11460,10 +11461,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>102673999</v>
+        <v>102675680</v>
       </c>
       <c r="B96" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11472,25 +11473,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11502,10 +11503,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>555956.3975149317</v>
+        <v>555919.8606050932</v>
       </c>
       <c r="R96" t="n">
-        <v>6992422.747574219</v>
+        <v>6991721.701528697</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11574,7 +11575,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>102672874</v>
+        <v>102675441</v>
       </c>
       <c r="B97" t="n">
         <v>78569</v>
@@ -11615,10 +11616,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>556033.2951521287</v>
+        <v>556064.7461533612</v>
       </c>
       <c r="R97" t="n">
-        <v>6992493.925039705</v>
+        <v>6991908.389769911</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11687,10 +11688,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102676162</v>
+        <v>102675456</v>
       </c>
       <c r="B98" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11699,39 +11700,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>556099.6845462379</v>
+        <v>556063.8140728066</v>
       </c>
       <c r="R98" t="n">
-        <v>6992147.610039625</v>
+        <v>6991883.422212936</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11800,10 +11801,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102675751</v>
+        <v>102675779</v>
       </c>
       <c r="B99" t="n">
-        <v>96332</v>
+        <v>78569</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11816,36 +11817,35 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>556048.5352608432</v>
+        <v>556028.4499553731</v>
       </c>
       <c r="R99" t="n">
-        <v>6991768.379399132</v>
+        <v>6991773.930866529</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11914,10 +11914,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>102675964</v>
+        <v>102675751</v>
       </c>
       <c r="B100" t="n">
-        <v>96239</v>
+        <v>96332</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11926,25 +11926,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>504</v>
+        <v>620</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11956,10 +11956,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>556065.3430367564</v>
+        <v>556048.5352608432</v>
       </c>
       <c r="R100" t="n">
-        <v>6992084.415958477</v>
+        <v>6991768.379399132</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>

--- a/artfynd/A 36223-2020.xlsx
+++ b/artfynd/A 36223-2020.xlsx
@@ -2950,10 +2950,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>102674094</v>
+        <v>102675615</v>
       </c>
       <c r="B21" t="n">
-        <v>96367</v>
+        <v>78569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2962,40 +2962,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555941.4986950879</v>
+        <v>555929.9774697111</v>
       </c>
       <c r="R21" t="n">
-        <v>6992417.501499421</v>
+        <v>6991714.6166458</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3064,10 +3063,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>102673071</v>
+        <v>102674094</v>
       </c>
       <c r="B22" t="n">
-        <v>78569</v>
+        <v>96367</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,39 +3075,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>556019.9946680904</v>
+        <v>555941.4986950879</v>
       </c>
       <c r="R22" t="n">
-        <v>6992527.713957582</v>
+        <v>6992417.501499421</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102673700</v>
+        <v>102673071</v>
       </c>
       <c r="B23" t="n">
-        <v>96367</v>
+        <v>78569</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3189,40 +3189,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>556061.0870230824</v>
+        <v>556019.9946680904</v>
       </c>
       <c r="R23" t="n">
-        <v>6992436.345785588</v>
+        <v>6992527.713957582</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3291,7 +3290,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102673082</v>
+        <v>102675423</v>
       </c>
       <c r="B24" t="n">
         <v>78569</v>
@@ -3332,10 +3331,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>556017.6383200918</v>
+        <v>556067.4791666414</v>
       </c>
       <c r="R24" t="n">
-        <v>6992532.662645389</v>
+        <v>6991934.29552756</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3378,11 +3377,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På björk</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3409,10 +3403,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102672183</v>
+        <v>102673700</v>
       </c>
       <c r="B25" t="n">
-        <v>98520</v>
+        <v>96367</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3425,21 +3419,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3447,14 +3441,14 @@
       <c r="L25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555814.0315769641</v>
+        <v>556061.0870230824</v>
       </c>
       <c r="R25" t="n">
-        <v>6992381.289649313</v>
+        <v>6992436.345785588</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3523,10 +3517,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102673181</v>
+        <v>102673082</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3539,21 +3533,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3564,10 +3558,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>556016.7458243549</v>
+        <v>556017.6383200918</v>
       </c>
       <c r="R26" t="n">
-        <v>6992531.740106534</v>
+        <v>6992532.662645389</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3610,6 +3604,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3636,10 +3635,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102675152</v>
+        <v>102672183</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3648,39 +3647,40 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>556063.6994521433</v>
+        <v>555814.0315769641</v>
       </c>
       <c r="R27" t="n">
-        <v>6992153.339685111</v>
+        <v>6992381.289649313</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3749,10 +3749,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102673637</v>
+        <v>102673181</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3761,40 +3761,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>556091.4243018022</v>
+        <v>556016.7458243549</v>
       </c>
       <c r="R28" t="n">
-        <v>6992415.550741013</v>
+        <v>6992531.740106534</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3863,7 +3862,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102672311</v>
+        <v>102675152</v>
       </c>
       <c r="B29" t="n">
         <v>78569</v>
@@ -3900,14 +3899,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>555848.2849864289</v>
+        <v>556063.6994521433</v>
       </c>
       <c r="R29" t="n">
-        <v>6992502.532189798</v>
+        <v>6992153.339685111</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3976,10 +3975,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102672555</v>
+        <v>102673637</v>
       </c>
       <c r="B30" t="n">
-        <v>94121</v>
+        <v>96334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3988,25 +3987,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4018,10 +4017,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>555956.3304199459</v>
+        <v>556091.4243018022</v>
       </c>
       <c r="R30" t="n">
-        <v>6992505.75220197</v>
+        <v>6992415.550741013</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4090,7 +4089,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>102672740</v>
+        <v>102672311</v>
       </c>
       <c r="B31" t="n">
         <v>78569</v>
@@ -4131,10 +4130,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>556018.6704496816</v>
+        <v>555848.2849864289</v>
       </c>
       <c r="R31" t="n">
-        <v>6992472.808081832</v>
+        <v>6992502.532189798</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4203,10 +4202,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102674082</v>
+        <v>102672555</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4219,35 +4218,36 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555955.278470983</v>
+        <v>555956.3304199459</v>
       </c>
       <c r="R32" t="n">
-        <v>6992434.975187292</v>
+        <v>6992505.75220197</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102674585</v>
+        <v>102672740</v>
       </c>
       <c r="B33" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4328,40 +4328,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555875.3611472296</v>
+        <v>556018.6704496816</v>
       </c>
       <c r="R33" t="n">
-        <v>6992327.912098738</v>
+        <v>6992472.808081832</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4430,10 +4429,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>102674074</v>
+        <v>102674082</v>
       </c>
       <c r="B34" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4446,21 +4445,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4543,7 +4542,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102674656</v>
+        <v>102675553</v>
       </c>
       <c r="B35" t="n">
         <v>78569</v>
@@ -4580,14 +4579,14 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>555899.9977846958</v>
+        <v>556003.0717956818</v>
       </c>
       <c r="R35" t="n">
-        <v>6992295.222790763</v>
+        <v>6991796.630980482</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4656,10 +4655,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102676160</v>
+        <v>102675680</v>
       </c>
       <c r="B36" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4668,39 +4667,40 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>556099.6845462379</v>
+        <v>555919.8606050932</v>
       </c>
       <c r="R36" t="n">
-        <v>6992147.610039625</v>
+        <v>6991721.701528697</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102672468</v>
+        <v>102674585</v>
       </c>
       <c r="B37" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,39 +4781,40 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>555925.5459816307</v>
+        <v>555875.3611472296</v>
       </c>
       <c r="R37" t="n">
-        <v>6992473.471497527</v>
+        <v>6992327.912098738</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4882,10 +4883,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102673871</v>
+        <v>102674074</v>
       </c>
       <c r="B38" t="n">
-        <v>98520</v>
+        <v>89673</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4894,40 +4895,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>555992.1293255581</v>
+        <v>555955.278470983</v>
       </c>
       <c r="R38" t="n">
-        <v>6992431.527829275</v>
+        <v>6992434.975187292</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>102673674</v>
+        <v>102674656</v>
       </c>
       <c r="B39" t="n">
         <v>78569</v>
@@ -5033,14 +5033,14 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>556068.3990979606</v>
+        <v>555899.9977846958</v>
       </c>
       <c r="R39" t="n">
-        <v>6992407.442215757</v>
+        <v>6992295.222790763</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102674987</v>
+        <v>102676160</v>
       </c>
       <c r="B40" t="n">
-        <v>96356</v>
+        <v>78569</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5121,40 +5121,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>555971.3031562314</v>
+        <v>556099.6845462379</v>
       </c>
       <c r="R40" t="n">
-        <v>6992190.304715534</v>
+        <v>6992147.610039625</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5223,10 +5222,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102674439</v>
+        <v>102672468</v>
       </c>
       <c r="B41" t="n">
-        <v>78603</v>
+        <v>89392</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5235,25 +5234,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5264,10 +5263,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>555872.762341159</v>
+        <v>555925.5459816307</v>
       </c>
       <c r="R41" t="n">
-        <v>6992452.605577582</v>
+        <v>6992473.471497527</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5336,10 +5335,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102672223</v>
+        <v>102673871</v>
       </c>
       <c r="B42" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5348,39 +5347,40 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>555779.7725518027</v>
+        <v>555992.1293255581</v>
       </c>
       <c r="R42" t="n">
-        <v>6992392.494676519</v>
+        <v>6992431.527829275</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102673774</v>
+        <v>102673674</v>
       </c>
       <c r="B43" t="n">
         <v>78569</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>556051.8724107973</v>
+        <v>556068.3990979606</v>
       </c>
       <c r="R43" t="n">
-        <v>6992443.897770432</v>
+        <v>6992407.442215757</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102674097</v>
+        <v>102674987</v>
       </c>
       <c r="B44" t="n">
-        <v>78569</v>
+        <v>96356</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5574,39 +5574,40 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>219847</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>555941.4986950879</v>
+        <v>555971.3031562314</v>
       </c>
       <c r="R44" t="n">
-        <v>6992417.501499421</v>
+        <v>6992190.304715534</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5675,10 +5676,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102674248</v>
+        <v>102674439</v>
       </c>
       <c r="B45" t="n">
-        <v>78569</v>
+        <v>78603</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5687,25 +5688,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5716,10 +5717,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>555923.5189205953</v>
+        <v>555872.762341159</v>
       </c>
       <c r="R45" t="n">
-        <v>6992485.683294397</v>
+        <v>6992452.605577582</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5788,10 +5789,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>102674268</v>
+        <v>102672223</v>
       </c>
       <c r="B46" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5800,40 +5801,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>555923.714069423</v>
+        <v>555779.7725518027</v>
       </c>
       <c r="R46" t="n">
-        <v>6992474.347125201</v>
+        <v>6992392.494676519</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>102674182</v>
+        <v>102673774</v>
       </c>
       <c r="B47" t="n">
         <v>78569</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>555930.8843123984</v>
+        <v>556051.8724107973</v>
       </c>
       <c r="R47" t="n">
-        <v>6992453.605729951</v>
+        <v>6992443.897770432</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6015,10 +6015,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102673906</v>
+        <v>102674097</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6027,40 +6027,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>555982.3661529566</v>
+        <v>555941.4986950879</v>
       </c>
       <c r="R48" t="n">
-        <v>6992418.205485758</v>
+        <v>6992417.501499421</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6129,7 +6128,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>102672265</v>
+        <v>102675441</v>
       </c>
       <c r="B49" t="n">
         <v>78569</v>
@@ -6170,10 +6169,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>555799.0981077637</v>
+        <v>556064.7461533612</v>
       </c>
       <c r="R49" t="n">
-        <v>6992430.928106785</v>
+        <v>6991908.389769911</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6242,10 +6241,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>102673715</v>
+        <v>102674248</v>
       </c>
       <c r="B50" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6258,21 +6257,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6283,10 +6282,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>556063.1302804593</v>
+        <v>555923.5189205953</v>
       </c>
       <c r="R50" t="n">
-        <v>6992423.226968406</v>
+        <v>6992485.683294397</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6355,10 +6354,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>102672250</v>
+        <v>102674268</v>
       </c>
       <c r="B51" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6367,39 +6366,40 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>555783.462223583</v>
+        <v>555923.714069423</v>
       </c>
       <c r="R51" t="n">
-        <v>6992415.691167935</v>
+        <v>6992474.347125201</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>102673996</v>
+        <v>102674182</v>
       </c>
       <c r="B52" t="n">
         <v>78569</v>
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>555956.3975149317</v>
+        <v>555930.8843123984</v>
       </c>
       <c r="R52" t="n">
-        <v>6992422.747574219</v>
+        <v>6992453.605729951</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>102673291</v>
+        <v>102673906</v>
       </c>
       <c r="B53" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6593,25 +6593,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>555992.625563895</v>
+        <v>555982.3661529566</v>
       </c>
       <c r="R53" t="n">
-        <v>6992534.499292246</v>
+        <v>6992418.205485758</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>102674434</v>
+        <v>102672265</v>
       </c>
       <c r="B54" t="n">
         <v>78569</v>
@@ -6736,10 +6736,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>555872.762341159</v>
+        <v>555799.0981077637</v>
       </c>
       <c r="R54" t="n">
-        <v>6992452.605577582</v>
+        <v>6992430.928106785</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>102672026</v>
+        <v>102673715</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>89673</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6820,40 +6820,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>555840.8712505187</v>
+        <v>556063.1302804593</v>
       </c>
       <c r="R55" t="n">
-        <v>6992299.649259766</v>
+        <v>6992423.226968406</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6922,7 +6921,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102673379</v>
+        <v>102672250</v>
       </c>
       <c r="B56" t="n">
         <v>78569</v>
@@ -6963,10 +6962,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>556055.3879449801</v>
+        <v>555783.462223583</v>
       </c>
       <c r="R56" t="n">
-        <v>6992477.070103021</v>
+        <v>6992415.691167935</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7035,7 +7034,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>102672504</v>
+        <v>102673996</v>
       </c>
       <c r="B57" t="n">
         <v>78569</v>
@@ -7076,10 +7075,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>555929.6873047542</v>
+        <v>555956.3975149317</v>
       </c>
       <c r="R57" t="n">
-        <v>6992470.367718018</v>
+        <v>6992422.747574219</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7148,10 +7147,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>102674118</v>
+        <v>102673291</v>
       </c>
       <c r="B58" t="n">
-        <v>89673</v>
+        <v>96334</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7160,39 +7159,40 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>555931.1263282663</v>
+        <v>555992.625563895</v>
       </c>
       <c r="R58" t="n">
-        <v>6992439.548735716</v>
+        <v>6992534.499292246</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>102674263</v>
+        <v>102674434</v>
       </c>
       <c r="B59" t="n">
-        <v>96367</v>
+        <v>78569</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7273,40 +7273,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>555923.714069423</v>
+        <v>555872.762341159</v>
       </c>
       <c r="R59" t="n">
-        <v>6992474.347125201</v>
+        <v>6992452.605577582</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7375,10 +7374,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>102675198</v>
+        <v>102672026</v>
       </c>
       <c r="B60" t="n">
-        <v>89952</v>
+        <v>98520</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7387,39 +7386,40 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>760</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>556049.6060881343</v>
+        <v>555840.8712505187</v>
       </c>
       <c r="R60" t="n">
-        <v>6992154.003780152</v>
+        <v>6992299.649259766</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>102674394</v>
+        <v>102673379</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7500,40 +7500,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>555878.2173725277</v>
+        <v>556055.3879449801</v>
       </c>
       <c r="R61" t="n">
-        <v>6992425.937795421</v>
+        <v>6992477.070103021</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7602,10 +7601,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102676096</v>
+        <v>102672504</v>
       </c>
       <c r="B62" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7614,40 +7613,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>556077.8631277385</v>
+        <v>555929.6873047542</v>
       </c>
       <c r="R62" t="n">
-        <v>6992122.283678446</v>
+        <v>6992470.367718018</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7716,10 +7714,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>102672361</v>
+        <v>102674118</v>
       </c>
       <c r="B63" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7732,21 +7730,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7757,10 +7755,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>555856.6802972055</v>
+        <v>555931.1263282663</v>
       </c>
       <c r="R63" t="n">
-        <v>6992542.591117078</v>
+        <v>6992439.548735716</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7829,10 +7827,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102676105</v>
+        <v>102674263</v>
       </c>
       <c r="B64" t="n">
-        <v>89392</v>
+        <v>96367</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7841,39 +7839,40 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>219874</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>556092.0975637719</v>
+        <v>555923.714069423</v>
       </c>
       <c r="R64" t="n">
-        <v>6992113.456744469</v>
+        <v>6992474.347125201</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7942,10 +7941,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>102674482</v>
+        <v>102675198</v>
       </c>
       <c r="B65" t="n">
-        <v>96354</v>
+        <v>89952</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7954,40 +7953,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221952</v>
+        <v>760</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>555864.6710797823</v>
+        <v>556049.6060881343</v>
       </c>
       <c r="R65" t="n">
-        <v>6992394.860666494</v>
+        <v>6992154.003780152</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8056,10 +8054,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>102675184</v>
+        <v>102674394</v>
       </c>
       <c r="B66" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8068,39 +8066,40 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>556049.6060881343</v>
+        <v>555878.2173725277</v>
       </c>
       <c r="R66" t="n">
-        <v>6992154.003780152</v>
+        <v>6992425.937795421</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8169,7 +8168,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>102674933</v>
+        <v>102676096</v>
       </c>
       <c r="B67" t="n">
         <v>96334</v>
@@ -8207,14 +8206,14 @@
       <c r="L67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>555921.6577390116</v>
+        <v>556077.8631277385</v>
       </c>
       <c r="R67" t="n">
-        <v>6992224.37850414</v>
+        <v>6992122.283678446</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8283,10 +8282,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>102674019</v>
+        <v>102672361</v>
       </c>
       <c r="B68" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8295,40 +8294,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>555962.6931939744</v>
+        <v>555856.6802972055</v>
       </c>
       <c r="R68" t="n">
-        <v>6992452.792776703</v>
+        <v>6992542.591117078</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8397,10 +8395,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>102672497</v>
+        <v>102676105</v>
       </c>
       <c r="B69" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8409,25 +8407,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8438,10 +8436,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>555942.5341643642</v>
+        <v>556092.0975637719</v>
       </c>
       <c r="R69" t="n">
-        <v>6992462.878008902</v>
+        <v>6992113.456744469</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8510,10 +8508,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>102673662</v>
+        <v>102674482</v>
       </c>
       <c r="B70" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8522,39 +8520,40 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>556065.2048558879</v>
+        <v>555864.6710797823</v>
       </c>
       <c r="R70" t="n">
-        <v>6992408.294272491</v>
+        <v>6992394.860666494</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8623,7 +8622,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>102675250</v>
+        <v>102675184</v>
       </c>
       <c r="B71" t="n">
         <v>78569</v>
@@ -8660,14 +8659,14 @@
       <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>556056.3703077651</v>
+        <v>556049.6060881343</v>
       </c>
       <c r="R71" t="n">
-        <v>6992104.221104029</v>
+        <v>6992154.003780152</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8736,10 +8735,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>102672110</v>
+        <v>102674933</v>
       </c>
       <c r="B72" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8748,25 +8747,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8778,10 +8777,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>555828.4490519323</v>
+        <v>555921.6577390116</v>
       </c>
       <c r="R72" t="n">
-        <v>6992335.270428007</v>
+        <v>6992224.37850414</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8850,10 +8849,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>102674205</v>
+        <v>102674019</v>
       </c>
       <c r="B73" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8862,39 +8861,40 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>555926.006549913</v>
+        <v>555962.6931939744</v>
       </c>
       <c r="R73" t="n">
-        <v>6992446.717974547</v>
+        <v>6992452.792776703</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8963,10 +8963,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>102675970</v>
+        <v>102672497</v>
       </c>
       <c r="B74" t="n">
-        <v>78569</v>
+        <v>89832</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8975,25 +8975,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9004,10 +9004,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>556079.4601892662</v>
+        <v>555942.5341643642</v>
       </c>
       <c r="R74" t="n">
-        <v>6992082.391404534</v>
+        <v>6992462.878008902</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9076,10 +9076,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>102672632</v>
+        <v>102673662</v>
       </c>
       <c r="B75" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9088,40 +9088,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>555996.6474305253</v>
+        <v>556065.2048558879</v>
       </c>
       <c r="R75" t="n">
-        <v>6992459.274471547</v>
+        <v>6992408.294272491</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9190,10 +9189,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>102672143</v>
+        <v>102675250</v>
       </c>
       <c r="B76" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9202,40 +9201,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>555830.3220869353</v>
+        <v>556056.3703077651</v>
       </c>
       <c r="R76" t="n">
-        <v>6992358.436173045</v>
+        <v>6992104.221104029</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9304,10 +9302,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>102672276</v>
+        <v>102672110</v>
       </c>
       <c r="B77" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9316,39 +9314,40 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>555803.1692579368</v>
+        <v>555828.4490519323</v>
       </c>
       <c r="R77" t="n">
-        <v>6992431.905210124</v>
+        <v>6992335.270428007</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9417,7 +9416,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>102672430</v>
+        <v>102674205</v>
       </c>
       <c r="B78" t="n">
         <v>78569</v>
@@ -9458,10 +9457,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>555918.352398372</v>
+        <v>555926.006549913</v>
       </c>
       <c r="R78" t="n">
-        <v>6992495.573110513</v>
+        <v>6992446.717974547</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9530,7 +9529,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>102674012</v>
+        <v>102675970</v>
       </c>
       <c r="B79" t="n">
         <v>78569</v>
@@ -9571,10 +9570,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>555962.6931939744</v>
+        <v>556079.4601892662</v>
       </c>
       <c r="R79" t="n">
-        <v>6992452.792776703</v>
+        <v>6992082.391404534</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9643,10 +9642,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>102673745</v>
+        <v>102672632</v>
       </c>
       <c r="B80" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9655,39 +9654,40 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>556062.4099226893</v>
+        <v>555996.6474305253</v>
       </c>
       <c r="R80" t="n">
-        <v>6992412.328363672</v>
+        <v>6992459.274471547</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>102673861</v>
+        <v>102672143</v>
       </c>
       <c r="B81" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9768,39 +9768,40 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>555992.1293255581</v>
+        <v>555830.3220869353</v>
       </c>
       <c r="R81" t="n">
-        <v>6992431.527829275</v>
+        <v>6992358.436173045</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9869,7 +9870,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>102673955</v>
+        <v>102672276</v>
       </c>
       <c r="B82" t="n">
         <v>78569</v>
@@ -9910,10 +9911,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>555957.2510049673</v>
+        <v>555803.1692579368</v>
       </c>
       <c r="R82" t="n">
-        <v>6992425.937398707</v>
+        <v>6992431.905210124</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9982,7 +9983,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>102672317</v>
+        <v>102672430</v>
       </c>
       <c r="B83" t="n">
         <v>78569</v>
@@ -10023,10 +10024,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>555854.2268902076</v>
+        <v>555918.352398372</v>
       </c>
       <c r="R83" t="n">
-        <v>6992500.366457579</v>
+        <v>6992495.573110513</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10095,10 +10096,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>102672682</v>
+        <v>102674012</v>
       </c>
       <c r="B84" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10107,40 +10108,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>555999.7243547405</v>
+        <v>555962.6931939744</v>
       </c>
       <c r="R84" t="n">
-        <v>6992465.224102435</v>
+        <v>6992452.792776703</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>102672106</v>
+        <v>102673745</v>
       </c>
       <c r="B85" t="n">
-        <v>101680</v>
+        <v>78569</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10221,40 +10221,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>222412</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>555828.4490519323</v>
+        <v>556062.4099226893</v>
       </c>
       <c r="R85" t="n">
-        <v>6992335.270428007</v>
+        <v>6992412.328363672</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10323,7 +10322,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>102674062</v>
+        <v>102673861</v>
       </c>
       <c r="B86" t="n">
         <v>78569</v>
@@ -10364,10 +10363,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>555950.2132989967</v>
+        <v>555992.1293255581</v>
       </c>
       <c r="R86" t="n">
-        <v>6992438.970233505</v>
+        <v>6992431.527829275</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10410,11 +10409,6 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10441,10 +10435,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>102675925</v>
+        <v>102673955</v>
       </c>
       <c r="B87" t="n">
-        <v>96356</v>
+        <v>78569</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10453,40 +10447,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>556069.2580294796</v>
+        <v>555957.2510049673</v>
       </c>
       <c r="R87" t="n">
-        <v>6992094.463514737</v>
+        <v>6992425.937398707</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10555,10 +10548,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>102672471</v>
+        <v>102672317</v>
       </c>
       <c r="B88" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10571,21 +10564,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10596,10 +10589,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>555925.5459816307</v>
+        <v>555854.2268902076</v>
       </c>
       <c r="R88" t="n">
-        <v>6992473.471497527</v>
+        <v>6992500.366457579</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10668,7 +10661,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>102673999</v>
+        <v>102672682</v>
       </c>
       <c r="B89" t="n">
         <v>98520</v>
@@ -10710,10 +10703,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>555956.3975149317</v>
+        <v>555999.7243547405</v>
       </c>
       <c r="R89" t="n">
-        <v>6992422.747574219</v>
+        <v>6992465.224102435</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10782,10 +10775,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102672874</v>
+        <v>102672106</v>
       </c>
       <c r="B90" t="n">
-        <v>78569</v>
+        <v>101680</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10794,39 +10787,40 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>222412</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>556033.2951521287</v>
+        <v>555828.4490519323</v>
       </c>
       <c r="R90" t="n">
-        <v>6992493.925039705</v>
+        <v>6992335.270428007</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10895,10 +10889,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>102676162</v>
+        <v>102674062</v>
       </c>
       <c r="B91" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10907,39 +10901,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Nötviken-Svedje, Bräcke, Jmt</t>
+          <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>556099.6845462379</v>
+        <v>555950.2132989967</v>
       </c>
       <c r="R91" t="n">
-        <v>6992147.610039625</v>
+        <v>6992438.970233505</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10982,6 +10976,11 @@
       <c r="AB91" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11008,10 +11007,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>102675964</v>
+        <v>102675925</v>
       </c>
       <c r="B92" t="n">
-        <v>96239</v>
+        <v>96356</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11024,21 +11023,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>504</v>
+        <v>219847</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11050,10 +11049,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>556065.3430367564</v>
+        <v>556069.2580294796</v>
       </c>
       <c r="R92" t="n">
-        <v>6992084.415958477</v>
+        <v>6992094.463514737</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11122,7 +11121,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>102675615</v>
+        <v>102675456</v>
       </c>
       <c r="B93" t="n">
         <v>78569</v>
@@ -11163,10 +11162,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>555929.9774697111</v>
+        <v>556063.8140728066</v>
       </c>
       <c r="R93" t="n">
-        <v>6991714.6166458</v>
+        <v>6991883.422212936</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11235,7 +11234,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>102675423</v>
+        <v>102675779</v>
       </c>
       <c r="B94" t="n">
         <v>78569</v>
@@ -11276,10 +11275,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>556067.4791666414</v>
+        <v>556028.4499553731</v>
       </c>
       <c r="R94" t="n">
-        <v>6991934.29552756</v>
+        <v>6991773.930866529</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11348,10 +11347,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102675553</v>
+        <v>102672471</v>
       </c>
       <c r="B95" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11364,21 +11363,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11389,10 +11388,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>556003.0717956818</v>
+        <v>555925.5459816307</v>
       </c>
       <c r="R95" t="n">
-        <v>6991796.630980482</v>
+        <v>6992473.471497527</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11461,10 +11460,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>102675680</v>
+        <v>102673999</v>
       </c>
       <c r="B96" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11473,25 +11472,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11503,10 +11502,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>555919.8606050932</v>
+        <v>555956.3975149317</v>
       </c>
       <c r="R96" t="n">
-        <v>6991721.701528697</v>
+        <v>6992422.747574219</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11575,7 +11574,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>102675441</v>
+        <v>102672874</v>
       </c>
       <c r="B97" t="n">
         <v>78569</v>
@@ -11616,10 +11615,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>556064.7461533612</v>
+        <v>556033.2951521287</v>
       </c>
       <c r="R97" t="n">
-        <v>6991908.389769911</v>
+        <v>6992493.925039705</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11688,10 +11687,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102675456</v>
+        <v>102676162</v>
       </c>
       <c r="B98" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11700,39 +11699,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Bräcke, Jmt</t>
+          <t>Nötviken-Svedje, Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>556063.8140728066</v>
+        <v>556099.6845462379</v>
       </c>
       <c r="R98" t="n">
-        <v>6991883.422212936</v>
+        <v>6992147.610039625</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11801,10 +11800,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102675779</v>
+        <v>102675751</v>
       </c>
       <c r="B99" t="n">
-        <v>78569</v>
+        <v>96332</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11817,35 +11816,36 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Bräcke, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>556028.4499553731</v>
+        <v>556048.5352608432</v>
       </c>
       <c r="R99" t="n">
-        <v>6991773.930866529</v>
+        <v>6991768.379399132</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11914,10 +11914,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>102675751</v>
+        <v>102675964</v>
       </c>
       <c r="B100" t="n">
-        <v>96332</v>
+        <v>96239</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11926,25 +11926,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>620</v>
+        <v>504</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11956,10 +11956,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>556048.5352608432</v>
+        <v>556065.3430367564</v>
       </c>
       <c r="R100" t="n">
-        <v>6991768.379399132</v>
+        <v>6992084.415958477</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
